--- a/biology/Botanique/Neckera_crispa/Neckera_crispa.xlsx
+++ b/biology/Botanique/Neckera_crispa/Neckera_crispa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neckera crispa est une espèce de Bryophytes de l'ordre des Hypnales.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce de mi-ombre, Neckera crispa croît en larges touffes sur les substrats calcaires et à la base de certains troncs d'arbres où elle peut former de vastes colonies. Ses tiges, très robustes et dépassant fréquemment 4 centimètres, sont aplaties dans un plan.
 Cette mousse doit son épithète spécifique à ses feuilles marquées d'ondulation transverses, visibles y compris à l’œil nu.
@@ -543,9 +557,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec Anomodon viticulosus, cette espèce était récoltée sous le nom de mousse de buis dans le bassin du Rhône où elle était employée dans le calfatage des bateaux servant au transport fluvial. Son usage est attesté dès le néolithique et jusqu'à l'aube du vingtième siècle, périclitant rapidement avec l'apparition de techniques plus modernes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec Anomodon viticulosus, cette espèce était récoltée sous le nom de mousse de buis dans le bassin du Rhône où elle était employée dans le calfatage des bateaux servant au transport fluvial. Son usage est attesté dès le néolithique et jusqu'à l'aube du vingtième siècle, périclitant rapidement avec l'apparition de techniques plus modernes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (3 janvier 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (3 janvier 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Neckera crispa [unranked] fassana Molendo
 variété Neckera crispa var. anoclada Warnst.
 variété Neckera crispa var. falcata Boulay
